--- a/Productivity Dataset.xlsx
+++ b/Productivity Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7b6fa3d2480fc23/Desktop/PWSkills/Excel/Module 3/Excel Assignment 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="11_946C2C74AA10D1C6D9A0D137CAB3D0636DB022F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF924ABF-52DA-4B77-8DDA-487CCDBA4BB8}"/>
+  <xr:revisionPtr revIDLastSave="433" documentId="11_946C2C74AA10D1C6D9A0D137CAB3D0636DB022F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A364088F-4256-4A07-8F8B-F80904A7FC95}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="39" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -345,12 +345,84 @@
       <t xml:space="preserve"> Performance Rating of 5.</t>
     </r>
   </si>
+  <si>
+    <t>Solution 1-&gt;</t>
+  </si>
+  <si>
+    <t>First sorted employees in descending order based on Productivity_Score and filtered the top 5 employees from them by going to Number Filters.</t>
+  </si>
+  <si>
+    <t>Then copied and pasted the result in Top5ProductiveEmployees sheet and created a bar chart to visualise the result.</t>
+  </si>
+  <si>
+    <t>Solution 2-&gt;</t>
+  </si>
+  <si>
+    <t>Created a pivot table in DepartmentProductivityVariation sheet to check the standard deviation of productivity scores within each department to assess consistency.</t>
+  </si>
+  <si>
+    <t>Then concluded which department has the least variation in employee productivity from the pivot table.</t>
+  </si>
+  <si>
+    <t>Solution 3-&gt;</t>
+  </si>
+  <si>
+    <t>Created a new column PEI(Productivity Efficiency Index) and calculated the same using formula (F2*G2)/D2 as instructed.</t>
+  </si>
+  <si>
+    <t>Then sorted employees in descending order based on PEI(Productivity Efficiency Index) and filtered the top 3 employees from them by going to Number Filters.</t>
+  </si>
+  <si>
+    <t>Then copied and pasted the result in Top3PEI sheet.</t>
+  </si>
+  <si>
+    <t>Solution 4-&gt;</t>
+  </si>
+  <si>
+    <t>a.</t>
+  </si>
+  <si>
+    <t>Calculated the correlation coefficient between Performance_Rating and Hours_Worked using formula CORREL(G2:G26,D2:D26) as well as Performance_Rating and Tasks_Completed using formula CORREL(G2:G26,E2:E26).</t>
+  </si>
+  <si>
+    <t>Then concluded  which has a stronger influence on Performance Rating based on correlation coefficient.</t>
+  </si>
+  <si>
+    <t>b.</t>
+  </si>
+  <si>
+    <t>Created a scatter plot to visualize the relationship between Hours_Worked and Productivity_Score in sheet ProductivityWorkHourCorrelation.</t>
+  </si>
+  <si>
+    <t>Then concluded if there is a positive or negative correlation based on the scatter plot.</t>
+  </si>
+  <si>
+    <t>Solution 5-&gt;</t>
+  </si>
+  <si>
+    <t>Created a column Underutilized_High_Performer to find employees who have a Performance Rating≥4 and worked less than the average hours of all employees using formula IF(AND(G2&gt;=4,D2&lt;AVERAGE($D$2:$D$26)),"Yes","No").</t>
+  </si>
+  <si>
+    <t>Then filtered employees having value as Yes in this column, and copied and pasted the result in sheet  UnderutilizedHighPerformers.</t>
+  </si>
+  <si>
+    <t>Solution 6-&gt;</t>
+  </si>
+  <si>
+    <t>Added a column Tasks_per_Hour and calculated values using formula E2/D2 as instructed.</t>
+  </si>
+  <si>
+    <t>Then found the most task-efficient employee based on this metric using formula INDEX(B2:B26,MATCH(MAX(J2:J26),J2:J26,0)) and the employee's department using formula XLOOKUP(L11,B2:B26,C2:C26).</t>
+  </si>
+  <si>
+    <t>Then compared the employee's performance score and rating.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -389,6 +461,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -503,7 +582,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -524,7 +602,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,6 +610,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1499,7 +1580,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-IN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1509,8 +1590,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1609,7 +1691,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-IN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2897,6 +2979,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3172,7 +3258,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6482C1C3-EF02-461D-B1A0-2D9EB73D652C}" name="PivotTable31" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Departments">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6482C1C3-EF02-461D-B1A0-2D9EB73D652C}" name="PivotTable31" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Departments">
   <location ref="B3:C9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -3443,973 +3529,1091 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.90625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.26953125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" style="18"/>
-    <col min="12" max="12" width="57.453125" style="18" customWidth="1"/>
-    <col min="13" max="13" width="37" style="18" customWidth="1"/>
-    <col min="14" max="16384" width="12.6328125" style="18"/>
+    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.453125" customWidth="1"/>
+    <col min="13" max="13" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
         <v>102</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>40</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>65</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>90</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>5</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <f>(F2*G2)/D2</f>
         <v>11.25</v>
       </c>
-      <c r="I2" s="13" t="str">
+      <c r="I2" s="12" t="str">
         <f>IF(AND(G2&gt;=4,D2&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <f>E2/D2</f>
         <v>1.625</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
         <v>109</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>42</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>70</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>92</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>5</v>
       </c>
-      <c r="H3" s="12">
-        <f>(F3*G3)/D3</f>
+      <c r="H3" s="11">
+        <f t="shared" ref="H2:H26" si="0">(F3*G3)/D3</f>
         <v>10.952380952380953</v>
       </c>
-      <c r="I3" s="12" t="str">
-        <f>IF(AND(G3&gt;=4,D3&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I3" s="11" t="str">
+        <f t="shared" ref="I2:I26" si="1">IF(AND(G3&gt;=4,D3&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="J3" s="12">
-        <f>E3/D3</f>
+      <c r="J3" s="11">
+        <f t="shared" ref="J2:J26" si="2">E3/D3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="17">
         <f>CORREL(G2:G26,D2:D26)</f>
         <v>0.94623485838187715</v>
       </c>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
         <v>118</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>43</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>75</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>93</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>5</v>
       </c>
-      <c r="H4" s="13">
-        <f>(F4*G4)/D4</f>
+      <c r="H4" s="12">
+        <f t="shared" si="0"/>
         <v>10.813953488372093</v>
       </c>
-      <c r="I4" s="13" t="str">
-        <f>IF(AND(G4&gt;=4,D4&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I4" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J4" s="13">
-        <f>E4/D4</f>
+      <c r="J4" s="12">
+        <f t="shared" si="2"/>
         <v>1.7441860465116279</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
         <v>112</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>44</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>73</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>94</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>5</v>
       </c>
-      <c r="H5" s="13">
-        <f>(F5*G5)/D5</f>
+      <c r="H5" s="12">
+        <f t="shared" si="0"/>
         <v>10.681818181818182</v>
       </c>
-      <c r="I5" s="13" t="str">
-        <f>IF(AND(G5&gt;=4,D5&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I5" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J5" s="13">
-        <f>E5/D5</f>
+      <c r="J5" s="12">
+        <f t="shared" si="2"/>
         <v>1.6590909090909092</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="17">
         <f>CORREL(G2:G26,E2:E26)</f>
         <v>0.95745537036476258</v>
       </c>
     </row>
-    <row r="6" spans="1:13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
         <v>104</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>45</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>75</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>95</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>5</v>
       </c>
-      <c r="H6" s="13">
-        <f>(F6*G6)/D6</f>
+      <c r="H6" s="12">
+        <f t="shared" si="0"/>
         <v>10.555555555555555</v>
       </c>
-      <c r="I6" s="13" t="str">
-        <f>IF(AND(G6&gt;=4,D6&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I6" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J6" s="13">
-        <f>E6/D6</f>
+      <c r="J6" s="12">
+        <f t="shared" si="2"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
         <v>125</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>47</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>79</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>99</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>5</v>
       </c>
-      <c r="H7" s="12">
-        <f>(F7*G7)/D7</f>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
         <v>10.531914893617021</v>
       </c>
-      <c r="I7" s="12" t="str">
-        <f>IF(AND(G7&gt;=4,D7&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I7" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J7" s="12">
-        <f>E7/D7</f>
+      <c r="J7" s="11">
+        <f t="shared" si="2"/>
         <v>1.6808510638297873</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
         <v>123</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>46</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>77</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>96</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>5</v>
       </c>
-      <c r="H8" s="12">
-        <f>(F8*G8)/D8</f>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
         <v>10.434782608695652</v>
       </c>
-      <c r="I8" s="12" t="str">
-        <f>IF(AND(G8&gt;=4,D8&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I8" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J8" s="12">
-        <f>E8/D8</f>
+      <c r="J8" s="11">
+        <f t="shared" si="2"/>
         <v>1.673913043478261</v>
       </c>
     </row>
-    <row r="9" spans="1:13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
         <v>115</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>48</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>78</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>98</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>5</v>
       </c>
-      <c r="H9" s="12">
-        <f>(F9*G9)/D9</f>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
         <v>10.208333333333334</v>
       </c>
-      <c r="I9" s="12" t="str">
-        <f>IF(AND(G9&gt;=4,D9&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I9" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J9" s="12">
-        <f>E9/D9</f>
+      <c r="J9" s="11">
+        <f t="shared" si="2"/>
         <v>1.625</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
         <v>107</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>50</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>80</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>100</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>5</v>
       </c>
-      <c r="H10" s="12">
-        <f>(F10*G10)/D10</f>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I10" s="12" t="str">
-        <f>IF(AND(G10&gt;=4,D10&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I10" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J10" s="12">
-        <f>E10/D10</f>
+      <c r="J10" s="11">
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
         <v>101</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>35</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>50</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>80</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>4</v>
       </c>
-      <c r="H11" s="12">
-        <f>(F11*G11)/D11</f>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
         <v>9.1428571428571423</v>
       </c>
-      <c r="I11" s="12" t="str">
-        <f>IF(AND(G11&gt;=4,D11&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I11" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="J11" s="12">
-        <f>E11/D11</f>
+      <c r="J11" s="11">
+        <f t="shared" si="2"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="L11" s="19" t="str">
+      <c r="L11" s="17" t="str">
         <f>INDEX(B2:B26,MATCH(MAX(J2:J26),J2:J26,0))</f>
         <v>Arjun</v>
       </c>
-      <c r="M11" s="19" t="str">
+      <c r="M11" s="17" t="str">
         <f>_xlfn.XLOOKUP(L11,B2:B26,C2:C26)</f>
         <v>Marketing</v>
       </c>
     </row>
-    <row r="12" spans="1:13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
         <v>110</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>37</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>55</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>83</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>4</v>
       </c>
-      <c r="H12" s="13">
-        <f>(F12*G12)/D12</f>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
         <v>8.9729729729729737</v>
       </c>
-      <c r="I12" s="13" t="str">
-        <f>IF(AND(G12&gt;=4,D12&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I12" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="J12" s="13">
-        <f>E12/D12</f>
+      <c r="J12" s="12">
+        <f t="shared" si="2"/>
         <v>1.4864864864864864</v>
       </c>
     </row>
-    <row r="13" spans="1:13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
         <v>106</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>38</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>58</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>85</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>4</v>
       </c>
-      <c r="H13" s="13">
-        <f>(F13*G13)/D13</f>
+      <c r="H13" s="12">
+        <f t="shared" si="0"/>
         <v>8.9473684210526319</v>
       </c>
-      <c r="I13" s="13" t="str">
-        <f>IF(AND(G13&gt;=4,D13&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I13" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J13" s="13">
-        <f>E13/D13</f>
+      <c r="J13" s="12">
+        <f t="shared" si="2"/>
         <v>1.5263157894736843</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
         <v>119</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>39</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>60</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>87</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>4</v>
       </c>
-      <c r="H14" s="12">
-        <f>(F14*G14)/D14</f>
+      <c r="H14" s="11">
+        <f t="shared" si="0"/>
         <v>8.9230769230769234</v>
       </c>
-      <c r="I14" s="12" t="str">
-        <f>IF(AND(G14&gt;=4,D14&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I14" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J14" s="12">
-        <f>E14/D14</f>
+      <c r="J14" s="11">
+        <f t="shared" si="2"/>
         <v>1.5384615384615385</v>
       </c>
     </row>
-    <row r="15" spans="1:13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
         <v>114</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>41</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>66</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>89</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>4</v>
       </c>
-      <c r="H15" s="13">
-        <f>(F15*G15)/D15</f>
+      <c r="H15" s="12">
+        <f t="shared" si="0"/>
         <v>8.6829268292682933</v>
       </c>
-      <c r="I15" s="13" t="str">
-        <f>IF(AND(G15&gt;=4,D15&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I15" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J15" s="13">
-        <f>E15/D15</f>
+      <c r="J15" s="12">
+        <f t="shared" si="2"/>
         <v>1.6097560975609757</v>
       </c>
     </row>
-    <row r="16" spans="1:13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
         <v>120</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>36</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>52</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>78</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>4</v>
       </c>
-      <c r="H16" s="13">
-        <f>(F16*G16)/D16</f>
+      <c r="H16" s="12">
+        <f t="shared" si="0"/>
         <v>8.6666666666666661</v>
       </c>
-      <c r="I16" s="13" t="str">
-        <f>IF(AND(G16&gt;=4,D16&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I16" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="J16" s="13">
-        <f>E16/D16</f>
+      <c r="J16" s="12">
+        <f t="shared" si="2"/>
         <v>1.4444444444444444</v>
       </c>
     </row>
-    <row r="17" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
         <v>111</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>29</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>38</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>68</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>3</v>
       </c>
-      <c r="H17" s="12">
-        <f>(F17*G17)/D17</f>
+      <c r="H17" s="11">
+        <f t="shared" si="0"/>
         <v>7.0344827586206895</v>
       </c>
-      <c r="I17" s="12" t="str">
-        <f>IF(AND(G17&gt;=4,D17&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I17" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J17" s="12">
-        <f>E17/D17</f>
+      <c r="J17" s="11">
+        <f t="shared" si="2"/>
         <v>1.3103448275862069</v>
       </c>
     </row>
-    <row r="18" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
         <v>103</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>30</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>40</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>70</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>3</v>
       </c>
-      <c r="H18" s="12">
-        <f>(F18*G18)/D18</f>
+      <c r="H18" s="11">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I18" s="12" t="str">
-        <f>IF(AND(G18&gt;=4,D18&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I18" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J18" s="12">
-        <f>E18/D18</f>
+      <c r="J18" s="11">
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
         <v>117</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>31</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>42</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>72</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>3</v>
       </c>
-      <c r="H19" s="12">
-        <f>(F19*G19)/D19</f>
+      <c r="H19" s="11">
+        <f t="shared" si="0"/>
         <v>6.967741935483871</v>
       </c>
-      <c r="I19" s="12" t="str">
-        <f>IF(AND(G19&gt;=4,D19&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I19" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J19" s="12">
-        <f>E19/D19</f>
+      <c r="J19" s="11">
+        <f t="shared" si="2"/>
         <v>1.3548387096774193</v>
       </c>
     </row>
-    <row r="20" spans="1:10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="13">
+    <row r="20" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
         <v>108</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>28</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>35</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>65</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>3</v>
       </c>
-      <c r="H20" s="13">
-        <f>(F20*G20)/D20</f>
+      <c r="H20" s="12">
+        <f t="shared" si="0"/>
         <v>6.9642857142857144</v>
       </c>
-      <c r="I20" s="13" t="str">
-        <f>IF(AND(G20&gt;=4,D20&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I20" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J20" s="13">
-        <f>E20/D20</f>
+      <c r="J20" s="12">
+        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
     </row>
-    <row r="21" spans="1:10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="13">
+    <row r="21" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
         <v>122</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>32</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>44</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>74</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>3</v>
       </c>
-      <c r="H21" s="13">
-        <f>(F21*G21)/D21</f>
+      <c r="H21" s="12">
+        <f t="shared" si="0"/>
         <v>6.9375</v>
       </c>
-      <c r="I21" s="13" t="str">
-        <f>IF(AND(G21&gt;=4,D21&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I21" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J21" s="13">
-        <f>E21/D21</f>
+      <c r="J21" s="12">
+        <f t="shared" si="2"/>
         <v>1.375</v>
       </c>
     </row>
-    <row r="22" spans="1:10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
+    <row r="22" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
         <v>113</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>33</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>45</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>75</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>3</v>
       </c>
-      <c r="H22" s="12">
-        <f>(F22*G22)/D22</f>
+      <c r="H22" s="11">
+        <f t="shared" si="0"/>
         <v>6.8181818181818183</v>
       </c>
-      <c r="I22" s="12" t="str">
-        <f>IF(AND(G22&gt;=4,D22&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I22" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J22" s="12">
-        <f>E22/D22</f>
+      <c r="J22" s="11">
+        <f t="shared" si="2"/>
         <v>1.3636363636363635</v>
       </c>
     </row>
-    <row r="23" spans="1:10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="13">
+    <row r="23" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
         <v>124</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>34</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>48</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>76</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="12">
         <v>3</v>
       </c>
-      <c r="H23" s="13">
-        <f>(F23*G23)/D23</f>
+      <c r="H23" s="12">
+        <f t="shared" si="0"/>
         <v>6.7058823529411766</v>
       </c>
-      <c r="I23" s="13" t="str">
-        <f>IF(AND(G23&gt;=4,D23&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I23" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J23" s="13">
-        <f>E23/D23</f>
+      <c r="J23" s="12">
+        <f t="shared" si="2"/>
         <v>1.411764705882353</v>
       </c>
     </row>
-    <row r="24" spans="1:10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
+    <row r="24" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
         <v>105</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>25</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>30</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>60</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <v>2</v>
       </c>
-      <c r="H24" s="12">
-        <f>(F24*G24)/D24</f>
+      <c r="H24" s="11">
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="I24" s="12" t="str">
-        <f>IF(AND(G24&gt;=4,D24&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I24" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J24" s="12">
-        <f>E24/D24</f>
+      <c r="J24" s="11">
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="13">
+    <row r="25" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
         <v>116</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>26</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <v>32</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>62</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="12">
         <v>2</v>
       </c>
-      <c r="H25" s="13">
-        <f>(F25*G25)/D25</f>
+      <c r="H25" s="12">
+        <f t="shared" si="0"/>
         <v>4.7692307692307692</v>
       </c>
-      <c r="I25" s="13" t="str">
-        <f>IF(AND(G25&gt;=4,D25&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I25" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J25" s="13">
-        <f>E25/D25</f>
+      <c r="J25" s="12">
+        <f t="shared" si="2"/>
         <v>1.2307692307692308</v>
       </c>
     </row>
-    <row r="26" spans="1:10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
+    <row r="26" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
         <v>121</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>27</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>34</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <v>64</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <v>2</v>
       </c>
-      <c r="H26" s="12">
-        <f>(F26*G26)/D26</f>
+      <c r="H26" s="11">
+        <f t="shared" si="0"/>
         <v>4.7407407407407405</v>
       </c>
-      <c r="I26" s="12" t="str">
-        <f>IF(AND(G26&gt;=4,D26&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+      <c r="I26" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="J26" s="12">
-        <f>E26/D26</f>
+      <c r="J26" s="11">
+        <f t="shared" si="2"/>
         <v>1.2592592592592593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4613,7 +4817,7 @@
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>2</v>
       </c>
     </row>
@@ -4621,7 +4825,7 @@
       <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>2.9580398915498081</v>
       </c>
     </row>
@@ -4629,7 +4833,7 @@
       <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>3.54400902933387</v>
       </c>
     </row>
@@ -4637,7 +4841,7 @@
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>4.3748015828022293</v>
       </c>
     </row>
@@ -4645,7 +4849,7 @@
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>4.7074409183759283</v>
       </c>
     </row>
@@ -4653,17 +4857,17 @@
       <c r="B9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>12.412896519346321</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5078,7 +5282,7 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5104,7 +5308,7 @@
       <c r="G2" s="5">
         <v>4</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>9.1428571428571423</v>
       </c>
     </row>
@@ -5130,7 +5334,7 @@
       <c r="G3" s="6">
         <v>4</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>8.9729729729729737</v>
       </c>
     </row>
@@ -5156,7 +5360,7 @@
       <c r="G4" s="6">
         <v>4</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>8.6666666666666661</v>
       </c>
     </row>

--- a/Productivity Dataset.xlsx
+++ b/Productivity Dataset.xlsx
@@ -608,12 +608,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3531,7 +3531,7 @@
   </sheetPr>
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -3561,25 +3561,25 @@
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3644,15 +3644,15 @@
         <v>5</v>
       </c>
       <c r="H3" s="11">
-        <f t="shared" ref="H2:H26" si="0">(F3*G3)/D3</f>
+        <f t="shared" ref="H3:H26" si="0">(F3*G3)/D3</f>
         <v>10.952380952380953</v>
       </c>
       <c r="I3" s="11" t="str">
-        <f t="shared" ref="I2:I26" si="1">IF(AND(G3&gt;=4,D3&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
+        <f t="shared" ref="I3:I26" si="1">IF(AND(G3&gt;=4,D3&lt;AVERAGE($D$2:$D$26)),"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="J3" s="11">
-        <f t="shared" ref="J2:J26" si="2">E3/D3</f>
+        <f t="shared" ref="J3:J26" si="2">E3/D3</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="L3" s="17">
@@ -3879,10 +3879,10 @@
         <f t="shared" si="2"/>
         <v>1.625</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="19"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
@@ -4502,12 +4502,12 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4517,12 +4517,12 @@
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4532,17 +4532,17 @@
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4557,12 +4557,12 @@
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="19" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4572,12 +4572,12 @@
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4587,12 +4587,12 @@
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4602,17 +4602,17 @@
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="19" t="s">
         <v>73</v>
       </c>
     </row>
